--- a/ResearchPlanningReport/Data.xlsx
+++ b/ResearchPlanningReport/Data.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\ResearchPlanningReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A820C77E-03A0-4612-8C66-43228E457AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92597776-FD49-4F7C-930E-A4012A63547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V0" sheetId="1" r:id="rId1"/>
+    <sheet name="V0CE" sheetId="4" r:id="rId2"/>
+    <sheet name="Generic" sheetId="2" r:id="rId3"/>
+    <sheet name="EverythingOneDevice" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>Task</t>
   </si>
@@ -83,12 +86,6 @@
     <t>convolve2d_horiz</t>
   </si>
   <si>
-    <t>edge_detect_v0</t>
-  </si>
-  <si>
-    <t>edge_detect_v0ce</t>
-  </si>
-  <si>
     <t>convolve2d (1)</t>
   </si>
   <si>
@@ -98,13 +95,97 @@
     <t>convolve2d (3)</t>
   </si>
   <si>
-    <t>CPU-only execTime (us)</t>
-  </si>
-  <si>
-    <t>FPGA-only execTime (us)</t>
-  </si>
-  <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>CPU ARM</t>
+  </si>
+  <si>
+    <t>CPU AMD</t>
+  </si>
+  <si>
+    <t>FPGA (optimized)</t>
+  </si>
+  <si>
+    <t>FPGA (baseline)</t>
+  </si>
+  <si>
+    <t>1280x720
+ HD</t>
+  </si>
+  <si>
+    <t>800x600
+ SVGA</t>
+  </si>
+  <si>
+    <t>800x480 
+WVGA</t>
+  </si>
+  <si>
+    <t>640x480
+ VGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512x512 
+DEFAULT </t>
+  </si>
+  <si>
+    <t>320x200 
+CGA</t>
+  </si>
+  <si>
+    <t>Everything on CPU</t>
+  </si>
+  <si>
+    <t>Everything on FPGA</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Optimized</t>
+  </si>
+  <si>
+    <t>Trivial Partitioning Scheme</t>
+  </si>
+  <si>
+    <t>Speedup of Optimized vs. Baseline</t>
+  </si>
+  <si>
+    <t>Exec Time Estimate (us)</t>
+  </si>
+  <si>
+    <t>HW/SW Partitioning Results</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>main_begin</t>
+  </si>
+  <si>
+    <t>main_end</t>
+  </si>
+  <si>
+    <t>Total exec time (us):</t>
+  </si>
+  <si>
+    <t>Total comm. time (us):</t>
+  </si>
+  <si>
+    <t>% of time spent in comm.:</t>
+  </si>
+  <si>
+    <t>Speedup vs. CPU-only:</t>
+  </si>
+  <si>
+    <t>Speedup vs. FPGA-only:</t>
   </si>
 </sst>
 </file>
@@ -112,9 +193,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +210,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -163,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -212,30 +300,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -275,37 +339,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -320,35 +370,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FF1568AA-C534-4802-A829-E1637F4F04AF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -361,6 +414,1514 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Generic!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU AMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Generic!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>320x200 
+CGA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512x512 
+DEFAULT </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640x480
+ VGA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800x480 
+WVGA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800x600
+ SVGA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1280x720
+ HD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generic!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.192200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.382400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.4024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.034800000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.890199999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09D7-4789-AC29-382B44692D9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Generic!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU ARM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Generic!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>320x200 
+CGA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512x512 
+DEFAULT </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640x480
+ VGA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800x480 
+WVGA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800x600
+ SVGA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1280x720
+ HD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generic!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.3752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.2342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.96039999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>164.20179999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203.75620000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>397.93579999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09D7-4789-AC29-382B44692D9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Generic!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPGA (baseline)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Generic!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>320x200 
+CGA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512x512 
+DEFAULT </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640x480
+ VGA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800x480 
+WVGA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800x600
+ SVGA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1280x720
+ HD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generic!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>92.747600000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>443.58820000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>456.90120000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>513.65559999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>642.45980000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1382.5319999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-09D7-4789-AC29-382B44692D9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Generic!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPGA (optimized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4653449524419123E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-D55A-4DBA-A102-58B6E1BBC237}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5569290119695184E-2"/>
+                  <c:y val="4.1229509420780582E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D55A-4DBA-A102-58B6E1BBC237}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0990087143314476E-2"/>
+                  <c:y val="2.0614754710390243E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D55A-4DBA-A102-58B6E1BBC237}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Generic!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>320x200 
+CGA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512x512 
+DEFAULT </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640x480
+ VGA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800x480 
+WVGA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800x600
+ SVGA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1280x720
+ HD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Generic!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>85.691999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>385.49420000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>411.46300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>511.97640000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640.01760000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1294.9296000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-09D7-4789-AC29-382B44692D9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1938277712"/>
+        <c:axId val="1938276048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1938277712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938276048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1938276048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Execution time (us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1938277712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000" b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>597351</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3EC36A-CD09-C8AA-1687-DAC8FAF23CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,395 +2201,846 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>21</v>
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="28"/>
+      <c r="A2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13">
+        <v>143601</v>
+      </c>
+      <c r="C2" s="12">
+        <v>7866.1900000000005</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.3271672504378201E-2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>5.0492556917688197E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>5.5555555555555497E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
-        <v>435.37200000000001</v>
-      </c>
-      <c r="C3" s="22">
-        <v>1464.47999</v>
+      <c r="B3">
+        <v>14467</v>
+      </c>
+      <c r="C3" s="8">
+        <v>23413.89</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2.6514156450671299E-2</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.133413601868067</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1.0714285714285701E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
-        <v>475.60399999999998</v>
-      </c>
-      <c r="C4" s="22">
-        <v>46.924819999999997</v>
+      <c r="B4">
+        <v>14467</v>
+      </c>
+      <c r="C4" s="8">
+        <v>23413.89</v>
+      </c>
+      <c r="D4" s="20">
+        <v>2.6514156450671299E-2</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.133413601868067</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1.0714285714285701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>14467</v>
+      </c>
+      <c r="C5" s="8">
+        <v>23413.89</v>
+      </c>
+      <c r="D5" s="20">
+        <v>2.6514156450671299E-2</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.133413601868067</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1.0714285714285701E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>245034</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5244.35</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7.8309252772912993E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.1555750145942701E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>6</v>
+      <c r="C7" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3.3785755983654401E-3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.0402072387624001E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3.3785755983654401E-3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.0402072387624001E-2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.3785755983654401E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0402072387624001E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15">
-        <v>143601</v>
-      </c>
-      <c r="C8" s="14">
-        <v>7866.1900000000005</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1.3271672504378201E-2</v>
-      </c>
-      <c r="E8" s="13">
-        <v>5.0492556917688197E-2</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>5.5555555555555497E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B14" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>14467</v>
-      </c>
-      <c r="C9" s="10">
-        <v>23413.89</v>
-      </c>
-      <c r="D9" s="23">
-        <v>2.6514156450671299E-2</v>
-      </c>
-      <c r="E9" s="23">
-        <v>0.133413601868067</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0</v>
-      </c>
-      <c r="G9" s="24">
-        <v>1.0714285714285701E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>14467</v>
-      </c>
-      <c r="C10" s="10">
-        <v>23413.89</v>
-      </c>
-      <c r="D10" s="23">
-        <v>2.6514156450671299E-2</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0.133413601868067</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0</v>
-      </c>
-      <c r="G10" s="24">
-        <v>1.0714285714285701E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>14467</v>
-      </c>
-      <c r="C11" s="10">
-        <v>23413.89</v>
-      </c>
-      <c r="D11" s="23">
-        <v>2.6514156450671299E-2</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.133413601868067</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="24">
-        <v>1.0714285714285701E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B17" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>245034</v>
-      </c>
-      <c r="C12" s="10">
-        <v>5244.35</v>
-      </c>
-      <c r="D12" s="9">
-        <v>7.8309252772912993E-2</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2.1555750145942701E-2</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="B18" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3.3785755983654401E-3</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1.0402072387624001E-2</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="B19" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="D14" s="9">
-        <v>3.3785755983654401E-3</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1.0402072387624001E-2</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="B20" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="D15" s="4">
-        <v>3.3785755983654401E-3</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1.0402072387624001E-2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>149827</v>
-      </c>
-      <c r="C19" s="10">
-        <v>7866.1900000000005</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1.3271672504378201E-2</v>
-      </c>
-      <c r="E19" s="9">
-        <v>5.0492556917688197E-2</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>5.5555555555555497E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>17706</v>
-      </c>
-      <c r="C20" s="10">
-        <v>23410.43</v>
-      </c>
-      <c r="D20" s="9">
-        <v>3.3986427320490298E-3</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1.04057209573847E-2</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>17706</v>
-      </c>
-      <c r="C21" s="10">
-        <v>15607.44</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1.35781523642732E-2</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1.6265323992994699E-2</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22">
-        <v>17706</v>
-      </c>
-      <c r="C22" s="10">
-        <v>15607.42</v>
-      </c>
-      <c r="D22" s="9">
-        <v>3.0137186223000499E-3</v>
-      </c>
-      <c r="E22" s="9">
-        <v>9.8730297723292407E-3</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="6">
-        <v>270074</v>
-      </c>
-      <c r="C23" s="5">
-        <v>5244.35</v>
-      </c>
-      <c r="D23" s="4">
-        <v>7.8309252772912993E-2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.1555750145942701E-2</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
+      <c r="B21" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>71601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>15090</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.21075124649097079</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="30">
+        <v>6.0805296015418779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="30">
+        <v>97.049701126573893</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B033A240-9DD8-410C-BFF1-B3FA28355E0B}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>149827</v>
+      </c>
+      <c r="C2" s="8">
+        <v>7866.1900000000005</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.3271672504378201E-2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>5.0492556917688197E-2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>5.5555555555555497E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>17706</v>
+      </c>
+      <c r="C3" s="8">
+        <v>23410.43</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3.3986427320490298E-3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.04057209573847E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>17706</v>
+      </c>
+      <c r="C4" s="8">
+        <v>15607.44</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.35781523642732E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.6265323992994699E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>17706</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15607.42</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3.0137186223000499E-3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>9.8730297723292407E-3</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>270074</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5244.35</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.8309252772912993E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.1555750145942701E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>32294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>7570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.23440886852046819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="30">
+        <v>14.72731776800644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="30">
+        <v>6.1987873183619548</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331B22D8-CD89-4FE0-A2AE-D35B65AF38CC}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="22"/>
+      <c r="B1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="25">
+        <v>10.192200000000001</v>
+      </c>
+      <c r="C2" s="25">
+        <v>25.382400000000001</v>
+      </c>
+      <c r="D2" s="25">
+        <v>28.834</v>
+      </c>
+      <c r="E2" s="25">
+        <v>33.4024</v>
+      </c>
+      <c r="F2" s="25">
+        <v>45.034800000000004</v>
+      </c>
+      <c r="G2" s="25">
+        <v>81.890199999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="25">
+        <v>28.3752</v>
+      </c>
+      <c r="C3" s="25">
+        <v>112.2342</v>
+      </c>
+      <c r="D3" s="25">
+        <v>130.96039999999999</v>
+      </c>
+      <c r="E3" s="25">
+        <v>164.20179999999999</v>
+      </c>
+      <c r="F3" s="25">
+        <v>203.75620000000001</v>
+      </c>
+      <c r="G3" s="25">
+        <v>397.93579999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="25">
+        <v>92.747600000000006</v>
+      </c>
+      <c r="C4" s="25">
+        <v>443.58820000000003</v>
+      </c>
+      <c r="D4" s="25">
+        <v>456.90120000000002</v>
+      </c>
+      <c r="E4" s="25">
+        <v>513.65559999999994</v>
+      </c>
+      <c r="F4" s="25">
+        <v>642.45980000000009</v>
+      </c>
+      <c r="G4" s="25">
+        <v>1382.5319999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="25">
+        <v>85.691999999999993</v>
+      </c>
+      <c r="C5" s="25">
+        <v>385.49420000000003</v>
+      </c>
+      <c r="D5" s="25">
+        <v>411.46300000000002</v>
+      </c>
+      <c r="E5" s="25">
+        <v>511.97640000000001</v>
+      </c>
+      <c r="F5" s="25">
+        <v>640.01760000000002</v>
+      </c>
+      <c r="G5" s="25">
+        <v>1294.9296000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AC4079-37DD-4400-BCFE-0CE8D2B084B0}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>435372</v>
+      </c>
+      <c r="D2" s="29">
+        <f>C2/C3</f>
+        <v>0.91540861725300882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>475604</v>
+      </c>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>1464479</v>
+      </c>
+      <c r="D4" s="29">
+        <f>C4/C5</f>
+        <v>31.209594237490411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>46924</v>
+      </c>
+      <c r="D5" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ResearchPlanningReport/Data.xlsx
+++ b/ResearchPlanningReport/Data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Dev\Experiments\ResearchPlanningReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92597776-FD49-4F7C-930E-A4012A63547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFBECB0-EEB5-4EC2-B18F-2000714A96CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26895" yWindow="2850" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V0" sheetId="1" r:id="rId1"/>
     <sheet name="V0CE" sheetId="4" r:id="rId2"/>
-    <sheet name="Generic" sheetId="2" r:id="rId3"/>
-    <sheet name="EverythingOneDevice" sheetId="3" r:id="rId4"/>
+    <sheet name="V2CE" sheetId="5" r:id="rId3"/>
+    <sheet name="Generic" sheetId="2" r:id="rId4"/>
+    <sheet name="EverythingOneDevice" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
   <si>
     <t>Task</t>
   </si>
@@ -96,18 +97,6 @@
   </si>
   <si>
     <t>Version</t>
-  </si>
-  <si>
-    <t>CPU ARM</t>
-  </si>
-  <si>
-    <t>CPU AMD</t>
-  </si>
-  <si>
-    <t>FPGA (optimized)</t>
-  </si>
-  <si>
-    <t>FPGA (baseline)</t>
   </si>
   <si>
     <t>1280x720
@@ -134,27 +123,6 @@
 CGA</t>
   </si>
   <si>
-    <t>Everything on CPU</t>
-  </si>
-  <si>
-    <t>Everything on FPGA</t>
-  </si>
-  <si>
-    <t>Baseline</t>
-  </si>
-  <si>
-    <t>Optimized</t>
-  </si>
-  <si>
-    <t>Trivial Partitioning Scheme</t>
-  </si>
-  <si>
-    <t>Speedup of Optimized vs. Baseline</t>
-  </si>
-  <si>
-    <t>Exec Time Estimate (us)</t>
-  </si>
-  <si>
     <t>HW/SW Partitioning Results</t>
   </si>
   <si>
@@ -186,14 +154,85 @@
   </si>
   <si>
     <t>Speedup vs. FPGA-only:</t>
+  </si>
+  <si>
+    <t>edge_detect_localdata</t>
+  </si>
+  <si>
+    <t>convolve2d_fused</t>
+  </si>
+  <si>
+    <t>7.3x</t>
+  </si>
+  <si>
+    <t>ED-B</t>
+  </si>
+  <si>
+    <t>ED-O1</t>
+  </si>
+  <si>
+    <t>ED-O2</t>
+  </si>
+  <si>
+    <t>Speedup vs. ED-B</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>ExecTime (us)</t>
+  </si>
+  <si>
+    <t>Trivial Partitioning</t>
+  </si>
+  <si>
+    <t>Everything on the CPU (P-SW)</t>
+  </si>
+  <si>
+    <t>Everything on the FPGA (P-HW)</t>
+  </si>
+  <si>
+    <t>P-SW</t>
+  </si>
+  <si>
+    <t>P-HW</t>
+  </si>
+  <si>
+    <t>FPGA (ED-B-D)</t>
+  </si>
+  <si>
+    <t>FPGA (ED-O1-D)</t>
+  </si>
+  <si>
+    <t>CPU AMD  (ED-B-D)</t>
+  </si>
+  <si>
+    <t>CPU ARM (ED-B-D)</t>
+  </si>
+  <si>
+    <t>vs. ED-O1 P-SW</t>
+  </si>
+  <si>
+    <t>vs. ED-O1 P-HW</t>
+  </si>
+  <si>
+    <t>vs. ED-B P-SW</t>
+  </si>
+  <si>
+    <t>vs. ED-B P-HW</t>
+  </si>
+  <si>
+    <t>vs. ED-B P-ILP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0\x"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="0.00\x"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -388,16 +427,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +491,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CPU AMD</c:v>
+                  <c:v>CPU AMD  (ED-B-D)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -591,7 +636,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CPU ARM</c:v>
+                  <c:v>CPU ARM (ED-B-D)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -736,7 +781,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FPGA (baseline)</c:v>
+                  <c:v>FPGA (ED-B-D)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -881,7 +926,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FPGA (optimized)</c:v>
+                  <c:v>FPGA (ED-O1-D)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1191,7 +1236,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Execution time (us)</a:t>
+                  <a:t>Execution time (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2408,17 +2453,17 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="27"/>
+      <c r="A12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2426,7 +2471,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2434,7 +2479,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2442,7 +2487,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2450,7 +2495,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2458,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2466,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2474,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2482,28 +2527,28 @@
         <v>1</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>71601</v>
@@ -2511,7 +2556,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>15090</v>
@@ -2519,7 +2564,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B26" s="7">
         <v>0.21075124649097079</v>
@@ -2527,17 +2572,17 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="30">
+        <v>34</v>
+      </c>
+      <c r="B27" s="27">
         <v>6.0805296015418779</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="30">
+        <v>35</v>
+      </c>
+      <c r="B28" s="27">
         <v>97.049701126573893</v>
       </c>
     </row>
@@ -2552,10 +2597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B033A240-9DD8-410C-BFF1-B3FA28355E0B}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="A23:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2703,7 +2748,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2711,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2719,7 +2764,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2727,7 +2772,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2735,7 +2780,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2743,7 +2788,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2751,63 +2796,99 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>32294</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>7570</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B20" s="7">
         <v>0.23440886852046819</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="30">
+        <v>54</v>
+      </c>
+      <c r="B21" s="27">
         <v>14.72731776800644</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="30">
+        <v>55</v>
+      </c>
+      <c r="B22" s="27">
         <v>6.1987873183619548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="34">
+        <f>C23/$B$18</f>
+        <v>13.481513593856445</v>
+      </c>
+      <c r="C23">
+        <v>435372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="34">
+        <f t="shared" ref="B24:B25" si="0">C24/$B$18</f>
+        <v>45.348330959311326</v>
+      </c>
+      <c r="C24">
+        <v>1464479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="34">
+        <f t="shared" si="0"/>
+        <v>2.2171610825540347</v>
+      </c>
+      <c r="C25">
+        <v>71601</v>
       </c>
     </row>
   </sheetData>
@@ -2816,11 +2897,284 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626F9B67-CF83-4FF7-B6D1-65711B8B9603}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>149827</v>
+      </c>
+      <c r="C2" s="8">
+        <v>7866.1900000000005</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.3271672504378201E-2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>5.0492556917688197E-2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>5.5555555555555497E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>17706</v>
+      </c>
+      <c r="C3" s="8">
+        <v>23410.43</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3.3986427320490298E-3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.04057209573847E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>22430</v>
+      </c>
+      <c r="C4" s="8">
+        <v>20809.46</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4.13852012314823E-3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.01469087227782E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>270074</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5244.35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.8309252772912993E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.1555750145942701E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>58873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>10578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>0.1796748934146383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="27">
+        <v>3.4524409151068252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="34">
+        <f>C21/$B$16</f>
+        <v>7.3951047169330595</v>
+      </c>
+      <c r="C21">
+        <v>435372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="34">
+        <f t="shared" ref="B22:B23" si="0">C22/$B$16</f>
+        <v>24.875222937509555</v>
+      </c>
+      <c r="C22">
+        <v>1464479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="34">
+        <f t="shared" si="0"/>
+        <v>1.2161941806940364</v>
+      </c>
+      <c r="C23">
+        <v>71601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331B22D8-CD89-4FE0-A2AE-D35B65AF38CC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,27 +3191,27 @@
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B2" s="25">
         <v>10.192200000000001</v>
@@ -2880,7 +3234,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B3" s="25">
         <v>28.3752</v>
@@ -2903,7 +3257,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B4" s="25">
         <v>92.747600000000006</v>
@@ -2926,7 +3280,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B5" s="25">
         <v>85.691999999999993</v>
@@ -2954,93 +3308,221 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AC4079-37DD-4400-BCFE-0CE8D2B084B0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D5"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>29</v>
+      <c r="A2" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>435372</v>
       </c>
-      <c r="D2" s="29">
-        <f>C2/C3</f>
-        <v>0.91540861725300882</v>
+      <c r="D2" s="32" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="31"/>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>475604</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="33">
+        <f>$C$2/C3</f>
+        <v>0.91540861725300882</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>30</v>
-      </c>
+      <c r="A4" s="31"/>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C4">
+        <v>430172</v>
+      </c>
+      <c r="D4" s="33">
+        <f>$C$2/C4</f>
+        <v>1.0120881879806216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
         <v>1464479</v>
       </c>
-      <c r="D4" s="29">
-        <f>C4/C5</f>
+      <c r="D5" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>46924</v>
+      </c>
+      <c r="D6" s="33">
+        <f>$C$5/C6</f>
         <v>31.209594237490411</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>36520</v>
+      </c>
+      <c r="D7" s="33">
+        <f>$C$5/C7</f>
+        <v>40.100739320920042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>435372</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>1464479</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>475604</v>
+      </c>
+      <c r="D13" s="33">
+        <f>$C$11/C13</f>
+        <v>0.91540861725300882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
         <v>46924</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D14" s="33">
+        <f>$C$12/C14</f>
+        <v>31.209594237490411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>430172</v>
+      </c>
+      <c r="D15" s="33">
+        <f>$C$11/C15</f>
+        <v>1.0120881879806216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>36520</v>
+      </c>
+      <c r="D16" s="33">
+        <f>$C$12/C16</f>
+        <v>40.100739320920042</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
+  <mergeCells count="5">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>